--- a/results/Stats_Report_2024-06-12.xlsx
+++ b/results/Stats_Report_2024-06-12.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG221"/>
+  <dimension ref="A1:AG241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24628,6 +24628,2186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>OMb9S_LJfcHcmNf2EeoK6oKVZPN_ilQ_atdZLBHcS-1cNv38UZObF9COSP54dJn9eD4-mP23xpHUug</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>IAMYOURFATHER</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H222" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I222" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J222" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K222" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L222" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M222" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="N222" s="2" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="O222" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="P222" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q222" s="2" t="n">
+        <v>15725</v>
+      </c>
+      <c r="R222" s="2" t="n">
+        <v>454.59</v>
+      </c>
+      <c r="S222" s="2" t="n">
+        <v>26389</v>
+      </c>
+      <c r="T222" s="2" t="n">
+        <v>762.86</v>
+      </c>
+      <c r="U222" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="V222" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="W222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X222" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC222" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD222" s="2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE222" s="2" t="n">
+        <v>646</v>
+      </c>
+      <c r="AF222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG222" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>y_RWP9uZssHJZTItE8dOqWi-Eytp7FFK7jOHhvduMvW1X4ez3sqo8WFVd1FUOf6wPCWp9Xxvien-Jg</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>Oasis Whisper</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>Maokai</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>JUNGLE</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H223" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J223" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K223" s="2" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L223" s="2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M223" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="N223" s="2" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O223" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P223" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Q223" s="2" t="n">
+        <v>11236</v>
+      </c>
+      <c r="R223" s="2" t="n">
+        <v>324.81</v>
+      </c>
+      <c r="S223" s="2" t="n">
+        <v>21689</v>
+      </c>
+      <c r="T223" s="2" t="n">
+        <v>626.99</v>
+      </c>
+      <c r="U223" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="V223" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="W223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC223" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD223" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AE223" s="2" t="n">
+        <v>656</v>
+      </c>
+      <c r="AF223" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="AG223" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>_-BpcF4ja-CAlct-3x-tMzuW7EGaBofNhxTDUBXt4ubMhote0dNsN37xa1RPsYSvyqLp2BN31DzPcg</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Hope</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Azir</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>MIDDLE</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H224" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K224" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L224" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M224" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="N224" s="2" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="O224" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="P224" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q224" s="2" t="n">
+        <v>11681</v>
+      </c>
+      <c r="R224" s="2" t="n">
+        <v>337.7</v>
+      </c>
+      <c r="S224" s="2" t="n">
+        <v>14710</v>
+      </c>
+      <c r="T224" s="2" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="U224" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="V224" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="W224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC224" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD224" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AE224" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="AF224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG224" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>rBA9IzyU1Oi5Ioyx2J72DsveUj8v-yQlj5rT8mpmIXwcQeDpeYGMPxkBFPbY_eDvh0zEY1ZEGobOfA</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Bassoon III</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>Caitlyn</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>BOTTOM</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H225" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I225" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J225" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K225" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" s="2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M225" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="N225" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O225" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="P225" s="2" t="n">
+        <v>-44</v>
+      </c>
+      <c r="Q225" s="2" t="n">
+        <v>11057</v>
+      </c>
+      <c r="R225" s="2" t="n">
+        <v>319.65</v>
+      </c>
+      <c r="S225" s="2" t="n">
+        <v>12945</v>
+      </c>
+      <c r="T225" s="2" t="n">
+        <v>374.23</v>
+      </c>
+      <c r="U225" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V225" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC225" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD225" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AE225" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="AF225" s="2" t="n">
+        <v>658</v>
+      </c>
+      <c r="AG225" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
+        <is>
+          <t>p3UpxAQMc52trAlV2Y2GxrgBYU8OYHNJDeZlm3cueaCtuQpxGpPUyBVhnwOCNQFdsFNnZbuQ9YTX8g</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>Daal</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>Velkoz</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="inlineStr">
+        <is>
+          <t>UTILITY</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G226" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="H226" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I226" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K226" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L226" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M226" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="N226" s="3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O226" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P226" s="3" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q226" s="3" t="n">
+        <v>9126</v>
+      </c>
+      <c r="R226" s="3" t="n">
+        <v>263.83</v>
+      </c>
+      <c r="S226" s="3" t="n">
+        <v>18306</v>
+      </c>
+      <c r="T226" s="3" t="n">
+        <v>529.21</v>
+      </c>
+      <c r="U226" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="V226" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W226" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X226" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z226" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA226" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB226" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC226" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="AD226" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE226" s="3" t="n">
+        <v>228</v>
+      </c>
+      <c r="AF226" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG226" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>l5wI2JfWIgYucm9-vB7sMzcKWZGxhlnbMedOPGH4YozKJ8EMT3alTxM0cYTUWbY2YiDke2vd67JfqA</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>HPZ Tea Jay</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>Malphite</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H227" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J227" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K227" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" s="2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M227" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="N227" s="2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O227" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="P227" s="2" t="n">
+        <v>-46</v>
+      </c>
+      <c r="Q227" s="2" t="n">
+        <v>9653</v>
+      </c>
+      <c r="R227" s="2" t="n">
+        <v>279.06</v>
+      </c>
+      <c r="S227" s="2" t="n">
+        <v>15898</v>
+      </c>
+      <c r="T227" s="2" t="n">
+        <v>459.58</v>
+      </c>
+      <c r="U227" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V227" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="W227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X227" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC227" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD227" s="2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AE227" s="2" t="n">
+        <v>614</v>
+      </c>
+      <c r="AF227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG227" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>h1F3QmjMT8BVvHVbq4dRdFVyKAB8tj1rgmu-AXI9w5ViWeyHX3D5HxF72UNkui9X82cRJDRhEJ-WJQ</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>JustaWittleGuy</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>Trundle</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>JUNGLE</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H228" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I228" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J228" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K228" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L228" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M228" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="N228" s="2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O228" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="P228" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q228" s="2" t="n">
+        <v>15773</v>
+      </c>
+      <c r="R228" s="2" t="n">
+        <v>455.99</v>
+      </c>
+      <c r="S228" s="2" t="n">
+        <v>20754</v>
+      </c>
+      <c r="T228" s="2" t="n">
+        <v>599.96</v>
+      </c>
+      <c r="U228" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="V228" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="W228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X228" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y228" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z228" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA228" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC228" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD228" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE228" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="AF228" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG228" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>OLojmaBUPPMqjbCCCMAahsssNRDMDgcFOWOaPAHljrRP-zzr02lHc5Qa9sqRsIo7pf4NY760BoV68w</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>CrimsonYoni</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>MIDDLE</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H229" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I229" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K229" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L229" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M229" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="N229" s="2" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="O229" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="P229" s="2" t="n">
+        <v>-29</v>
+      </c>
+      <c r="Q229" s="2" t="n">
+        <v>12847</v>
+      </c>
+      <c r="R229" s="2" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="S229" s="2" t="n">
+        <v>33267</v>
+      </c>
+      <c r="T229" s="2" t="n">
+        <v>961.7</v>
+      </c>
+      <c r="U229" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="V229" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="W229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X229" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC229" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD229" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE229" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG229" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>ab4gQ5K2q9dFtLhWtZ7s8jTUa0MCQ_IdT9DteNLPsgujzYISxj7cPQ-1DpPZcg-iBv9rTn1t7i6xKg</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>agateo</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>Tristana</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>BOTTOM</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H230" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I230" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K230" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L230" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M230" s="2" t="n">
+        <v>299</v>
+      </c>
+      <c r="N230" s="2" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="O230" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="P230" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q230" s="2" t="n">
+        <v>17260</v>
+      </c>
+      <c r="R230" s="2" t="n">
+        <v>498.95</v>
+      </c>
+      <c r="S230" s="2" t="n">
+        <v>35638</v>
+      </c>
+      <c r="T230" s="2" t="n">
+        <v>1030.22</v>
+      </c>
+      <c r="U230" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="V230" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="W230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB230" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC230" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD230" s="2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AE230" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="AF230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG230" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t>xzdrsAzMMae3GTrUzEov6J_BTo7vceWI-MLu080uVo9rGydkcQ1wHqSDI_woNQDrTMjOxJuN4w4EnQ</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>Abraxo</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>Taric</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>UTILITY</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F231" s="3" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G231" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H231" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J231" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K231" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L231" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M231" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="N231" s="3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O231" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="P231" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q231" s="3" t="n">
+        <v>9292</v>
+      </c>
+      <c r="R231" s="3" t="n">
+        <v>268.63</v>
+      </c>
+      <c r="S231" s="3" t="n">
+        <v>7680</v>
+      </c>
+      <c r="T231" s="3" t="n">
+        <v>222.02</v>
+      </c>
+      <c r="U231" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="V231" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="W231" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X231" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y231" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z231" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA231" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB231" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC231" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD231" s="3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AE231" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="AF231" s="3" t="n">
+        <v>15613</v>
+      </c>
+      <c r="AG231" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>l5wI2JfWIgYucm9-vB7sMzcKWZGxhlnbMedOPGH4YozKJ8EMT3alTxM0cYTUWbY2YiDke2vd67JfqA</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>HPZ Tea Jay</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>JarvanIV</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G232" t="n">
+        <v>17</v>
+      </c>
+      <c r="H232" t="n">
+        <v>5</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3</v>
+      </c>
+      <c r="J232" t="n">
+        <v>9</v>
+      </c>
+      <c r="K232" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M232" t="n">
+        <v>196</v>
+      </c>
+      <c r="N232" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="O232" t="n">
+        <v>110</v>
+      </c>
+      <c r="P232" t="n">
+        <v>-33</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>12081</v>
+      </c>
+      <c r="R232" t="n">
+        <v>400.06</v>
+      </c>
+      <c r="S232" t="n">
+        <v>15883</v>
+      </c>
+      <c r="T232" t="n">
+        <v>525.98</v>
+      </c>
+      <c r="U232" t="n">
+        <v>16</v>
+      </c>
+      <c r="V232" t="n">
+        <v>24</v>
+      </c>
+      <c r="W232" t="b">
+        <v>0</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>325</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>h1F3QmjMT8BVvHVbq4dRdFVyKAB8tj1rgmu-AXI9w5ViWeyHX3D5HxF72UNkui9X82cRJDRhEJ-WJQ</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>JustaWittleGuy</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Ivern</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>JUNGLE</t>
+        </is>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G233" t="n">
+        <v>18</v>
+      </c>
+      <c r="H233" t="n">
+        <v>8</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>14</v>
+      </c>
+      <c r="K233" t="n">
+        <v>22</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M233" t="n">
+        <v>212</v>
+      </c>
+      <c r="N233" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="O233" t="n">
+        <v>90</v>
+      </c>
+      <c r="P233" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>14070</v>
+      </c>
+      <c r="R233" t="n">
+        <v>465.93</v>
+      </c>
+      <c r="S233" t="n">
+        <v>19583</v>
+      </c>
+      <c r="T233" t="n">
+        <v>648.49</v>
+      </c>
+      <c r="U233" t="n">
+        <v>20</v>
+      </c>
+      <c r="V233" t="n">
+        <v>20</v>
+      </c>
+      <c r="W233" t="b">
+        <v>0</v>
+      </c>
+      <c r="X233" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>301</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>9459</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>OLojmaBUPPMqjbCCCMAahsssNRDMDgcFOWOaPAHljrRP-zzr02lHc5Qa9sqRsIo7pf4NY760BoV68w</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>CrimsonYoni</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>AurelionSol</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>MIDDLE</t>
+        </is>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G234" t="n">
+        <v>16</v>
+      </c>
+      <c r="H234" t="n">
+        <v>4</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4</v>
+      </c>
+      <c r="J234" t="n">
+        <v>4</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M234" t="n">
+        <v>226</v>
+      </c>
+      <c r="N234" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="O234" t="n">
+        <v>112</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>11350</v>
+      </c>
+      <c r="R234" t="n">
+        <v>375.88</v>
+      </c>
+      <c r="S234" t="n">
+        <v>24967</v>
+      </c>
+      <c r="T234" t="n">
+        <v>826.78</v>
+      </c>
+      <c r="U234" t="n">
+        <v>25</v>
+      </c>
+      <c r="V234" t="n">
+        <v>17</v>
+      </c>
+      <c r="W234" t="b">
+        <v>0</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>265</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ab4gQ5K2q9dFtLhWtZ7s8jTUa0MCQ_IdT9DteNLPsgujzYISxj7cPQ-1DpPZcg-iBv9rTn1t7i6xKg</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>agateo</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Sivir</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>BOTTOM</t>
+        </is>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G235" t="n">
+        <v>15</v>
+      </c>
+      <c r="H235" t="n">
+        <v>12</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>6</v>
+      </c>
+      <c r="K235" t="n">
+        <v>18</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M235" t="n">
+        <v>243</v>
+      </c>
+      <c r="N235" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="O235" t="n">
+        <v>110</v>
+      </c>
+      <c r="P235" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>16865</v>
+      </c>
+      <c r="R235" t="n">
+        <v>558.49</v>
+      </c>
+      <c r="S235" t="n">
+        <v>30768</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1018.89</v>
+      </c>
+      <c r="U235" t="n">
+        <v>31</v>
+      </c>
+      <c r="V235" t="n">
+        <v>17</v>
+      </c>
+      <c r="W235" t="b">
+        <v>0</v>
+      </c>
+      <c r="X235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>43</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="inlineStr">
+        <is>
+          <t>xzdrsAzMMae3GTrUzEov6J_BTo7vceWI-MLu080uVo9rGydkcQ1wHqSDI_woNQDrTMjOxJuN4w4EnQ</t>
+        </is>
+      </c>
+      <c r="B236" s="4" t="inlineStr">
+        <is>
+          <t>Abraxo</t>
+        </is>
+      </c>
+      <c r="C236" s="4" t="inlineStr">
+        <is>
+          <t>Thresh</t>
+        </is>
+      </c>
+      <c r="D236" s="4" t="inlineStr">
+        <is>
+          <t>UTILITY</t>
+        </is>
+      </c>
+      <c r="E236" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F236" s="4" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G236" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="H236" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K236" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="L236" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M236" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="N236" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O236" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P236" s="4" t="n">
+        <v>-16</v>
+      </c>
+      <c r="Q236" s="4" t="n">
+        <v>8942</v>
+      </c>
+      <c r="R236" s="4" t="n">
+        <v>296.12</v>
+      </c>
+      <c r="S236" s="4" t="n">
+        <v>7989</v>
+      </c>
+      <c r="T236" s="4" t="n">
+        <v>264.58</v>
+      </c>
+      <c r="U236" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="V236" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="W236" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X236" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y236" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z236" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA236" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB236" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC236" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="AD236" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE236" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="AF236" s="4" t="n">
+        <v>1265</v>
+      </c>
+      <c r="AG236" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>OMb9S_LJfcHcmNf2EeoK6oKVZPN_ilQ_atdZLBHcS-1cNv38UZObF9COSP54dJn9eD4-mP23xpHUug</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>IAMYOURFATHER</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G237" t="n">
+        <v>16</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3</v>
+      </c>
+      <c r="I237" t="n">
+        <v>10</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M237" t="n">
+        <v>271</v>
+      </c>
+      <c r="N237" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="O237" t="n">
+        <v>143</v>
+      </c>
+      <c r="P237" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>15481</v>
+      </c>
+      <c r="R237" t="n">
+        <v>512.66</v>
+      </c>
+      <c r="S237" t="n">
+        <v>17039</v>
+      </c>
+      <c r="T237" t="n">
+        <v>564.24</v>
+      </c>
+      <c r="U237" t="n">
+        <v>25</v>
+      </c>
+      <c r="V237" t="n">
+        <v>35</v>
+      </c>
+      <c r="W237" t="b">
+        <v>0</v>
+      </c>
+      <c r="X237" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>929</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>y_RWP9uZssHJZTItE8dOqWi-Eytp7FFK7jOHhvduMvW1X4ez3sqo8WFVd1FUOf6wPCWp9Xxvien-Jg</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Oasis Whisper</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Volibear</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>JUNGLE</t>
+        </is>
+      </c>
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G238" t="n">
+        <v>14</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>5</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M238" t="n">
+        <v>161</v>
+      </c>
+      <c r="N238" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="O238" t="n">
+        <v>84</v>
+      </c>
+      <c r="P238" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>10085</v>
+      </c>
+      <c r="R238" t="n">
+        <v>333.98</v>
+      </c>
+      <c r="S238" t="n">
+        <v>7646</v>
+      </c>
+      <c r="T238" t="n">
+        <v>253.22</v>
+      </c>
+      <c r="U238" t="n">
+        <v>11</v>
+      </c>
+      <c r="V238" t="n">
+        <v>24</v>
+      </c>
+      <c r="W238" t="b">
+        <v>0</v>
+      </c>
+      <c r="X238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>433</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>_-BpcF4ja-CAlct-3x-tMzuW7EGaBofNhxTDUBXt4ubMhote0dNsN37xa1RPsYSvyqLp2BN31DzPcg</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Hope</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Ryze</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>MIDDLE</t>
+        </is>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G239" t="n">
+        <v>17</v>
+      </c>
+      <c r="H239" t="n">
+        <v>3</v>
+      </c>
+      <c r="I239" t="n">
+        <v>5</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M239" t="n">
+        <v>220</v>
+      </c>
+      <c r="N239" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="O239" t="n">
+        <v>112</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>10770</v>
+      </c>
+      <c r="R239" t="n">
+        <v>356.68</v>
+      </c>
+      <c r="S239" t="n">
+        <v>14229</v>
+      </c>
+      <c r="T239" t="n">
+        <v>471.19</v>
+      </c>
+      <c r="U239" t="n">
+        <v>21</v>
+      </c>
+      <c r="V239" t="n">
+        <v>19</v>
+      </c>
+      <c r="W239" t="b">
+        <v>0</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>39</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>rBA9IzyU1Oi5Ioyx2J72DsveUj8v-yQlj5rT8mpmIXwcQeDpeYGMPxkBFPbY_eDvh0zEY1ZEGobOfA</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Bassoon III</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Caitlyn</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>BOTTOM</t>
+        </is>
+      </c>
+      <c r="E240" t="b">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G240" t="n">
+        <v>13</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+      <c r="I240" t="n">
+        <v>6</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M240" t="n">
+        <v>158</v>
+      </c>
+      <c r="N240" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="O240" t="n">
+        <v>77</v>
+      </c>
+      <c r="P240" t="n">
+        <v>-33</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>9431</v>
+      </c>
+      <c r="R240" t="n">
+        <v>312.34</v>
+      </c>
+      <c r="S240" t="n">
+        <v>9888</v>
+      </c>
+      <c r="T240" t="n">
+        <v>327.45</v>
+      </c>
+      <c r="U240" t="n">
+        <v>15</v>
+      </c>
+      <c r="V240" t="n">
+        <v>12</v>
+      </c>
+      <c r="W240" t="b">
+        <v>0</v>
+      </c>
+      <c r="X240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>52</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>471</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="4" t="inlineStr">
+        <is>
+          <t>p3UpxAQMc52trAlV2Y2GxrgBYU8OYHNJDeZlm3cueaCtuQpxGpPUyBVhnwOCNQFdsFNnZbuQ9YTX8g</t>
+        </is>
+      </c>
+      <c r="B241" s="4" t="inlineStr">
+        <is>
+          <t>Daal</t>
+        </is>
+      </c>
+      <c r="C241" s="4" t="inlineStr">
+        <is>
+          <t>Velkoz</t>
+        </is>
+      </c>
+      <c r="D241" s="4" t="inlineStr">
+        <is>
+          <t>UTILITY</t>
+        </is>
+      </c>
+      <c r="E241" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F241" s="4" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G241" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H241" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J241" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K241" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L241" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M241" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="N241" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O241" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="P241" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q241" s="4" t="n">
+        <v>7014</v>
+      </c>
+      <c r="R241" s="4" t="n">
+        <v>232.27</v>
+      </c>
+      <c r="S241" s="4" t="n">
+        <v>18888</v>
+      </c>
+      <c r="T241" s="4" t="n">
+        <v>625.49</v>
+      </c>
+      <c r="U241" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="V241" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="W241" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X241" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y241" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z241" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA241" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB241" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC241" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD241" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AE241" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="AF241" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG241" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25294,46 +27474,46 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>249.9</v>
+        <v>314.7</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H12" t="n">
-        <v>3.33</v>
+        <v>2.94</v>
       </c>
       <c r="I12" t="n">
-        <v>111674</v>
+        <v>143455</v>
       </c>
       <c r="J12" t="n">
-        <v>446.87</v>
+        <v>455.85</v>
       </c>
       <c r="K12" t="n">
-        <v>1468</v>
+        <v>1825</v>
       </c>
       <c r="L12" t="n">
-        <v>5.87</v>
+        <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>-227</v>
+        <v>-306</v>
       </c>
       <c r="N12" t="n">
-        <v>-28.4</v>
+        <v>-30.6</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -25348,46 +27528,46 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>249.9</v>
+        <v>314.7</v>
       </c>
       <c r="E13" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H13" t="n">
-        <v>6.28</v>
+        <v>7.15</v>
       </c>
       <c r="I13" t="n">
-        <v>129960</v>
+        <v>170297</v>
       </c>
       <c r="J13" t="n">
-        <v>520.05</v>
+        <v>541.14</v>
       </c>
       <c r="K13" t="n">
-        <v>1505</v>
+        <v>1980</v>
       </c>
       <c r="L13" t="n">
-        <v>6.02</v>
+        <v>6.29</v>
       </c>
       <c r="M13" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="N13" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O13" t="n">
         <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -25402,46 +27582,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>249.9</v>
+        <v>314.7</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H14" t="n">
-        <v>4.88</v>
+        <v>4.72</v>
       </c>
       <c r="I14" t="n">
-        <v>150581</v>
+        <v>208815</v>
       </c>
       <c r="J14" t="n">
-        <v>602.5700000000001</v>
+        <v>663.54</v>
       </c>
       <c r="K14" t="n">
-        <v>1305</v>
+        <v>1777</v>
       </c>
       <c r="L14" t="n">
-        <v>5.22</v>
+        <v>5.65</v>
       </c>
       <c r="M14" t="n">
-        <v>-134</v>
+        <v>-163</v>
       </c>
       <c r="N14" t="n">
-        <v>-16.8</v>
+        <v>-16.3</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -25456,40 +27636,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>249.9</v>
+        <v>314.7</v>
       </c>
       <c r="E15" t="n">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" t="n">
-        <v>6.92</v>
+        <v>7.56</v>
       </c>
       <c r="I15" t="n">
-        <v>261261</v>
+        <v>327667</v>
       </c>
       <c r="J15" t="n">
-        <v>1045.46</v>
+        <v>1041.2</v>
       </c>
       <c r="K15" t="n">
-        <v>1728</v>
+        <v>2270</v>
       </c>
       <c r="L15" t="n">
-        <v>6.91</v>
+        <v>7.21</v>
       </c>
       <c r="M15" t="n">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="N15" t="n">
-        <v>17.4</v>
+        <v>21.6</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
@@ -25510,40 +27690,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>249.9</v>
+        <v>314.7</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="H16" t="n">
-        <v>8.43</v>
+        <v>8.48</v>
       </c>
       <c r="I16" t="n">
-        <v>63793</v>
+        <v>79462</v>
       </c>
       <c r="J16" t="n">
-        <v>255.27</v>
+        <v>252.5</v>
       </c>
       <c r="K16" t="n">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="L16" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="M16" t="n">
-        <v>-41</v>
+        <v>-46</v>
       </c>
       <c r="N16" t="n">
-        <v>-5.1</v>
+        <v>-4.6</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
@@ -26536,40 +28716,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="n">
-        <v>179</v>
+        <v>243.8</v>
       </c>
       <c r="E35" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G35" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>3.68</v>
       </c>
       <c r="I35" t="n">
-        <v>84464</v>
+        <v>113799</v>
       </c>
       <c r="J35" t="n">
-        <v>471.87</v>
+        <v>466.77</v>
       </c>
       <c r="K35" t="n">
-        <v>926</v>
+        <v>1286</v>
       </c>
       <c r="L35" t="n">
-        <v>5.17</v>
+        <v>5.27</v>
       </c>
       <c r="M35" t="n">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.8</v>
+        <v>-2.4</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
@@ -26590,46 +28770,46 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>179</v>
+        <v>243.8</v>
       </c>
       <c r="E36" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F36" t="n">
+        <v>19</v>
+      </c>
+      <c r="G36" t="n">
+        <v>45</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="I36" t="n">
+        <v>155236</v>
+      </c>
+      <c r="J36" t="n">
+        <v>636.74</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1893</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="M36" t="n">
+        <v>121</v>
+      </c>
+      <c r="N36" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
         <v>10</v>
-      </c>
-      <c r="G36" t="n">
-        <v>38</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I36" t="n">
-        <v>126297</v>
-      </c>
-      <c r="J36" t="n">
-        <v>705.5700000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L36" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="M36" t="n">
-        <v>92</v>
-      </c>
-      <c r="N36" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -26644,40 +28824,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
-        <v>179</v>
+        <v>243.8</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F37" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H37" t="n">
-        <v>3.29</v>
+        <v>2.36</v>
       </c>
       <c r="I37" t="n">
-        <v>115642</v>
+        <v>138475</v>
       </c>
       <c r="J37" t="n">
-        <v>646.04</v>
+        <v>567.99</v>
       </c>
       <c r="K37" t="n">
-        <v>1135</v>
+        <v>1466</v>
       </c>
       <c r="L37" t="n">
-        <v>6.34</v>
+        <v>6.01</v>
       </c>
       <c r="M37" t="n">
-        <v>38</v>
+        <v>-39</v>
       </c>
       <c r="N37" t="n">
-        <v>6.3</v>
+        <v>-4.9</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -26698,40 +28878,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>179</v>
+        <v>243.8</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F38" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G38" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H38" t="n">
-        <v>4.78</v>
+        <v>4.13</v>
       </c>
       <c r="I38" t="n">
-        <v>91484</v>
+        <v>128678</v>
       </c>
       <c r="J38" t="n">
-        <v>511.08</v>
+        <v>527.8</v>
       </c>
       <c r="K38" t="n">
-        <v>263</v>
+        <v>363</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M38" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N38" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -26752,46 +28932,46 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F39" t="n">
+        <v>31</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I39" t="n">
+        <v>110717</v>
+      </c>
+      <c r="J39" t="n">
+        <v>858.9400000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1061</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="M39" t="n">
+        <v>120</v>
+      </c>
+      <c r="N39" t="n">
+        <v>30</v>
+      </c>
+      <c r="O39" t="n">
         <v>2</v>
       </c>
-      <c r="D39" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="E39" t="n">
-        <v>17</v>
-      </c>
-      <c r="F39" t="n">
-        <v>11</v>
-      </c>
-      <c r="G39" t="n">
-        <v>8</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I39" t="n">
-        <v>67289</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1049.75</v>
-      </c>
-      <c r="K39" t="n">
-        <v>481</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M39" t="n">
-        <v>41</v>
-      </c>
-      <c r="N39" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
       <c r="P39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
